--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Classes\csci531\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12910" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="Defect_Serverity">Sheet2!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="47">
   <si>
     <t>Date Tested</t>
   </si>
@@ -160,6 +155,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheng Luo </t>
+  </si>
+  <si>
+    <t>Zhao Xie</t>
+  </si>
+  <si>
+    <t>small fail, for empty string name</t>
   </si>
 </sst>
 </file>
@@ -225,7 +229,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,7 +499,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -505,20 +509,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.81640625" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -547,7 +551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -558,7 +562,7 @@
         <v>41969</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -568,7 +572,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -579,7 +583,7 @@
         <v>41969</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -589,7 +593,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -600,7 +604,7 @@
         <v>41969</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -610,7 +614,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -621,17 +625,21 @@
         <v>41969</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -642,7 +650,7 @@
         <v>41969</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -652,7 +660,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -663,17 +671,21 @@
         <v>41969</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -684,7 +696,7 @@
         <v>41969</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -694,7 +706,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -705,7 +717,7 @@
         <v>41969</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -715,7 +727,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -726,7 +738,7 @@
         <v>41969</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -736,7 +748,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -747,7 +759,7 @@
         <v>41969</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -757,7 +769,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -768,7 +780,7 @@
         <v>41969</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -776,9 +788,8 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -789,17 +800,21 @@
         <v>41969</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -820,7 +835,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -841,7 +856,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -852,7 +867,7 @@
         <v>41969</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -862,7 +877,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -873,17 +888,21 @@
         <v>41969</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -894,7 +913,7 @@
         <v>41969</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -904,7 +923,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -915,7 +934,7 @@
         <v>41969</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -925,7 +944,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -946,7 +965,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -967,7 +986,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -988,7 +1007,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1009,7 +1028,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1030,7 +1049,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1051,7 +1070,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1062,7 +1081,7 @@
         <v>41969</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -1072,7 +1091,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1083,7 +1102,7 @@
         <v>41969</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -1093,7 +1112,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1104,7 +1123,7 @@
         <v>41969</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>8</v>
@@ -1114,7 +1133,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1125,7 +1144,7 @@
         <v>41969</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
@@ -1135,7 +1154,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1156,7 +1175,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1177,7 +1196,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1198,7 +1217,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1219,7 +1238,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1240,7 +1259,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1261,7 +1280,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -1282,7 +1301,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1303,7 +1322,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1324,7 +1343,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1345,7 +1364,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -1366,7 +1385,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -1387,7 +1406,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1427,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1429,7 +1448,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1450,7 +1469,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -1471,7 +1490,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
@@ -1492,7 +1511,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -1513,7 +1532,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
@@ -1534,7 +1553,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -1555,7 +1574,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -1565,9 +1584,7 @@
       <c r="C50" s="5">
         <v>41969</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1576,7 +1593,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -1586,9 +1603,7 @@
       <c r="C51" s="5">
         <v>41969</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1612,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1616,7 +1631,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -1653,7 +1668,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="Defect_Serverity">Sheet2!$A$1:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="49">
   <si>
     <t>Date Tested</t>
   </si>
@@ -164,13 +164,19 @@
   </si>
   <si>
     <t>small fail, for empty string name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shengti Pan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shengti Pan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -322,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,21 +505,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -522,7 +528,7 @@
     <col min="9" max="9" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="60">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -551,7 +557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -572,7 +578,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -593,7 +599,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -614,7 +620,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -639,7 +645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -660,7 +666,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -685,7 +691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -706,7 +712,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -727,7 +733,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -748,7 +754,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -769,7 +775,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -789,7 +795,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -814,7 +820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -835,7 +841,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -856,7 +862,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -877,7 +883,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -902,7 +908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -923,7 +929,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -944,7 +950,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -965,7 +971,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -986,7 +992,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1013,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1028,7 +1034,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1055,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1070,7 +1076,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1091,7 +1097,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1112,7 +1118,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1133,7 +1139,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1154,7 +1160,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>41969</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -1175,7 +1181,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>41969</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -1196,7 +1202,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1207,7 +1213,7 @@
         <v>41969</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -1217,7 +1223,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>41969</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -1238,7 +1244,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>41969</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -1259,7 +1265,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>41969</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -1280,7 +1286,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -1291,7 +1297,7 @@
         <v>41969</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -1301,7 +1307,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>41969</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -1322,7 +1328,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>41969</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -1343,7 +1349,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>41969</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -1364,7 +1370,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>41969</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -1385,7 +1391,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -1396,7 +1402,7 @@
         <v>41969</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>8</v>
@@ -1406,7 +1412,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -1427,7 +1433,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1454,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1469,7 +1475,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1496,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
@@ -1511,7 +1517,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -1532,7 +1538,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
@@ -1553,7 +1559,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -1574,7 +1580,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -1593,7 +1599,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -1612,7 +1618,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1631,7 +1637,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -1661,31 +1667,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>15</v>
       </c>

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="51">
   <si>
     <t>Date Tested</t>
   </si>
@@ -170,13 +175,19 @@
   </si>
   <si>
     <t xml:space="preserve"> Shengti Pan</t>
+  </si>
+  <si>
+    <t>Edward Iskandar</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,7 +246,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -505,21 +516,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
@@ -528,7 +539,7 @@
     <col min="9" max="9" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60">
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -557,7 +568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -578,7 +589,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -599,7 +610,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -620,7 +631,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -645,7 +656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -666,7 +677,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -691,7 +702,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -712,7 +723,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -733,7 +744,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -754,7 +765,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -775,7 +786,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -795,7 +806,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -820,7 +831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -841,7 +852,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -862,7 +873,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -883,7 +894,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -908,7 +919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -929,7 +940,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -950,7 +961,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -971,7 +982,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -992,7 +1003,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1024,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -1034,7 +1045,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1055,7 +1066,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -1076,7 +1087,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1097,7 +1108,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1118,7 +1129,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>30</v>
       </c>
@@ -1139,7 +1150,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1171,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1181,7 +1192,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1202,7 +1213,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1234,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -1244,7 +1255,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1276,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -1286,7 +1297,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -1307,7 +1318,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +1339,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1349,7 +1360,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>35</v>
       </c>
@@ -1370,7 +1381,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>36</v>
       </c>
@@ -1391,7 +1402,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +1423,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -1422,8 +1433,8 @@
       <c r="C42" s="5">
         <v>41969</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>43</v>
+      <c r="D42" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -1433,7 +1444,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1443,8 +1454,8 @@
       <c r="C43" s="5">
         <v>41969</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>43</v>
+      <c r="D43" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -1454,7 +1465,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>38</v>
       </c>
@@ -1464,8 +1475,8 @@
       <c r="C44" s="5">
         <v>41969</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>43</v>
+      <c r="D44" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>8</v>
@@ -1475,7 +1486,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
@@ -1485,8 +1496,8 @@
       <c r="C45" s="5">
         <v>41969</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>43</v>
+      <c r="D45" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>8</v>
@@ -1496,7 +1507,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
@@ -1506,18 +1517,18 @@
       <c r="C46" s="5">
         <v>41969</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>43</v>
+      <c r="D46" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>39</v>
       </c>
@@ -1527,18 +1538,18 @@
       <c r="C47" s="5">
         <v>41969</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>43</v>
+      <c r="D47" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>40</v>
       </c>
@@ -1548,18 +1559,18 @@
       <c r="C48" s="5">
         <v>41969</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>43</v>
+      <c r="D48" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -1569,18 +1580,18 @@
       <c r="C49" s="5">
         <v>41969</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>43</v>
+      <c r="D49" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -1590,7 +1601,9 @@
       <c r="C50" s="5">
         <v>41969</v>
       </c>
-      <c r="D50" s="1"/>
+      <c r="D50" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1612,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -1609,16 +1622,18 @@
       <c r="C51" s="5">
         <v>41969</v>
       </c>
-      <c r="D51" s="1"/>
+      <c r="D51" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>42</v>
       </c>
@@ -1628,7 +1643,9 @@
       <c r="C52" s="5">
         <v>41969</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E52" s="1" t="s">
         <v>8</v>
       </c>
@@ -1637,7 +1654,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>42</v>
       </c>
@@ -1647,9 +1664,11 @@
       <c r="C53" s="5">
         <v>41969</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="E53" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -1667,31 +1686,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
   <si>
     <t>Date Tested</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>feature not working</t>
+  </si>
+  <si>
+    <t>invalid validation</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -244,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,10 +1532,14 @@
       <c r="E46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -1544,10 +1557,14 @@
       <c r="E47" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -1565,10 +1582,14 @@
       <c r="E48" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="I48" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1586,10 +1607,14 @@
       <c r="E49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -1628,10 +1653,14 @@
       <c r="E51" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="1"/>
+      <c r="F51" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
@@ -1670,10 +1699,14 @@
       <c r="E53" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
   </bookViews>
@@ -255,7 +250,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,7 +520,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="A20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
   </bookViews>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="53">
   <si>
     <t>Date Tested</t>
   </si>
@@ -250,7 +255,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -531,7 +536,7 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="A20:J21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,7 +851,7 @@
         <v>41969</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -867,15 +872,17 @@
         <v>41969</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edward\Documents\GitHub\Pizza\Deliverable 4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
   </bookViews>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="51">
   <si>
     <t>Date Tested</t>
   </si>
@@ -108,9 +103,6 @@
     <t>Delete provider info</t>
   </si>
   <si>
-    <t>Update member Status</t>
-  </si>
-  <si>
     <t>Get Admin info</t>
   </si>
   <si>
@@ -157,9 +149,6 @@
   </si>
   <si>
     <t>Delete service</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Cheng Luo </t>
@@ -255,7 +244,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,7 +514,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -533,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +577,7 @@
         <v>41969</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
@@ -609,7 +598,7 @@
         <v>41969</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -630,7 +619,7 @@
         <v>41969</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>8</v>
@@ -651,7 +640,7 @@
         <v>41969</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -662,7 +651,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -676,7 +665,7 @@
         <v>41969</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>8</v>
@@ -697,7 +686,7 @@
         <v>41969</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
@@ -708,7 +697,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,7 +711,7 @@
         <v>41969</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -743,7 +732,7 @@
         <v>41969</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>8</v>
@@ -764,7 +753,7 @@
         <v>41969</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -785,7 +774,7 @@
         <v>41969</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>8</v>
@@ -806,7 +795,7 @@
         <v>41969</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>8</v>
@@ -826,7 +815,7 @@
         <v>41969</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -837,7 +826,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -851,7 +840,7 @@
         <v>41969</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>8</v>
@@ -872,16 +861,16 @@
         <v>41969</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -895,7 +884,7 @@
         <v>41969</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>8</v>
@@ -916,7 +905,7 @@
         <v>41969</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>8</v>
@@ -927,7 +916,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,7 +930,7 @@
         <v>41969</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>8</v>
@@ -962,7 +951,7 @@
         <v>41969</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
@@ -983,7 +972,7 @@
         <v>41969</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>8</v>
@@ -1004,7 +993,7 @@
         <v>41969</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1067,7 +1056,7 @@
         <v>41969</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
@@ -1088,7 +1077,7 @@
         <v>41969</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
@@ -1099,7 +1088,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1109,7 +1098,7 @@
         <v>41969</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
@@ -1120,7 +1109,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1130,7 +1119,7 @@
         <v>41969</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>8</v>
@@ -1193,7 +1182,7 @@
         <v>41969</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>8</v>
@@ -1214,7 +1203,7 @@
         <v>41969</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>8</v>
@@ -1226,7 +1215,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
@@ -1235,7 +1224,7 @@
         <v>41969</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>8</v>
@@ -1247,7 +1236,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
@@ -1256,7 +1245,7 @@
         <v>41969</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>8</v>
@@ -1268,7 +1257,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
@@ -1277,7 +1266,7 @@
         <v>41969</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>8</v>
@@ -1289,7 +1278,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
@@ -1298,7 +1287,7 @@
         <v>41969</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>8</v>
@@ -1310,7 +1299,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
@@ -1319,7 +1308,7 @@
         <v>41969</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -1331,7 +1320,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
@@ -1340,7 +1329,7 @@
         <v>41969</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>8</v>
@@ -1361,7 +1350,7 @@
         <v>41969</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>8</v>
@@ -1382,7 +1371,7 @@
         <v>41969</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>8</v>
@@ -1402,8 +1391,8 @@
       <c r="C40" s="5">
         <v>41969</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>48</v>
+      <c r="D40" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>8</v>
@@ -1423,7 +1412,7 @@
       <c r="C41" s="5">
         <v>41969</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1445,7 +1434,7 @@
         <v>41969</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>8</v>
@@ -1466,7 +1455,7 @@
         <v>41969</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>8</v>
@@ -1487,15 +1476,19 @@
         <v>41969</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
@@ -1508,15 +1501,19 @@
         <v>41969</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -1529,10 +1526,10 @@
         <v>41969</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -1540,7 +1537,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,10 +1551,10 @@
         <v>41969</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
@@ -1565,7 +1562,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1579,19 +1576,15 @@
         <v>41969</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -1604,18 +1597,18 @@
         <v>41969</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -1629,15 +1622,15 @@
         <v>41969</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -1650,69 +1643,23 @@
         <v>41969</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F49">
       <formula1>Defect_Serverity</formula1>
     </dataValidation>
   </dataValidations>

--- a/Deliverable 4/System Testing.xlsx
+++ b/Deliverable 4/System Testing.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mo\Documents\GitHub\Pizza\Deliverable 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="7305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12920" windowHeight="7310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,9 +187,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,17 +246,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -514,7 +541,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -525,20 +552,22 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" style="8" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -556,24 +585,24 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>41969</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -585,16 +614,16 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>41969</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -606,16 +635,16 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>41969</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -627,16 +656,16 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>41969</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -650,18 +679,18 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>41969</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -673,16 +702,16 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>41969</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -696,18 +725,18 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>41969</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -719,16 +748,16 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>41969</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -740,16 +769,16 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>41969</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -761,16 +790,16 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>41969</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -782,16 +811,16 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>41969</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -804,14 +833,14 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>41969</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -825,18 +854,18 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>41969</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -848,16 +877,16 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>41969</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -869,18 +898,18 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>41969</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -892,16 +921,16 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>41969</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -915,18 +944,18 @@
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>41969</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -938,16 +967,16 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>41969</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -959,16 +988,16 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>41969</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -980,16 +1009,16 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>41969</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1001,16 +1030,16 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>41969</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1022,16 +1051,16 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>41969</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -1043,16 +1072,16 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>41969</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -1064,16 +1093,16 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>41969</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1085,16 +1114,16 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>41969</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -1106,16 +1135,16 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>41969</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1127,16 +1156,16 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>41969</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -1148,16 +1177,16 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>41969</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -1169,16 +1198,16 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>41969</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -1190,16 +1219,16 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>41969</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1211,16 +1240,16 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>41969</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -1232,16 +1261,16 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>41969</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -1253,16 +1282,16 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>41969</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -1274,16 +1303,16 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>41969</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -1295,16 +1324,16 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>41969</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -1316,16 +1345,16 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>41969</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -1337,16 +1366,16 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>41969</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -1358,16 +1387,16 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="4">
         <v>41969</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -1379,19 +1408,19 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -1400,19 +1429,19 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -1421,19 +1450,19 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -1442,19 +1471,19 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -1463,19 +1492,19 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -1486,21 +1515,21 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -1511,21 +1540,21 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E46" s="1" t="s">
@@ -1536,21 +1565,21 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -1561,21 +1590,21 @@
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -1584,19 +1613,19 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -1607,53 +1636,53 @@
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C51" s="5">
-        <v>41969</v>
-      </c>
-      <c r="D51" s="4" t="s">
+      <c r="C51" s="4">
+        <v>41969</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="6" t="s">
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1664,6 +1693,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1675,24 +1705,24 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
